--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED22581-4E2D-4D0D-84FA-FF4E5799C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DED22581-4E2D-4D0D-84FA-FF4E5799C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC88868A-B3A6-4F41-81B3-3020B3A99B46}"/>
   <bookViews>
-    <workbookView xWindow="-7536" yWindow="10692" windowWidth="23256" windowHeight="12456" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="8890" windowWidth="19420" windowHeight="10300" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="業務報告" sheetId="79" r:id="rId1"/>
@@ -14,15 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -940,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,7 +961,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1038,59 +1029,62 @@
     <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1104,21 +1098,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1175,19 +1168,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1258,38 +1251,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1685,21 +1660,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1714,28 +1689,28 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="61"/>
       <c r="E4" s="62"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="64"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
@@ -1767,142 +1742,142 @@
       <c r="B8" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="66"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="66"/>
       <c r="B10" s="68"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="66"/>
       <c r="B11" s="68"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
       <c r="B12" s="68"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
       <c r="B14" s="68"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66"/>
       <c r="B15" s="68"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66"/>
       <c r="B16" s="68"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="66"/>
       <c r="B17" s="69"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="66"/>
@@ -1933,170 +1908,170 @@
       <c r="B19" s="69"/>
       <c r="C19" s="86"/>
       <c r="D19" s="87"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="66"/>
       <c r="B20" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="66"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="66"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="66"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66"/>
       <c r="B30" s="76"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66"/>
@@ -2104,113 +2079,113 @@
         <v>11</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66"/>
       <c r="B32" s="78"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66"/>
       <c r="B33" s="78"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="51"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66"/>
       <c r="B34" s="78"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66"/>
       <c r="B35" s="78"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="66"/>
       <c r="B36" s="78"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66"/>
       <c r="B37" s="78"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66"/>
       <c r="B38" s="79"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66"/>
@@ -2476,7 +2451,7 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="109"/>
-      <c r="B57" s="119"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="32"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
@@ -2490,7 +2465,7 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="109"/>
-      <c r="B58" s="119"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="33"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -2504,7 +2479,7 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="109"/>
-      <c r="B59" s="119"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="34" t="s">
         <v>16</v>
       </c>
@@ -2520,7 +2495,7 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="109"/>
-      <c r="B60" s="119"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="35"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -2534,7 +2509,7 @@
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="110"/>
-      <c r="B61" s="120"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="36"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -2553,86 +2528,86 @@
       <c r="B62" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="111"/>
-      <c r="L62" s="112"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="49"/>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="109"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="115"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="109"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="115"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="109"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="115"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="109"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
-      <c r="L66" s="115"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="110"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="118"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="102" t="s">
@@ -2640,57 +2615,57 @@
       </c>
       <c r="B68" s="103"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="115"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="104"/>
       <c r="B69" s="105"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="104"/>
       <c r="B70" s="105"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="115"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="106"/>
       <c r="B71" s="107"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="117"/>
-      <c r="L71" s="118"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="88" t="s">

--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DED22581-4E2D-4D0D-84FA-FF4E5799C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC88868A-B3A6-4F41-81B3-3020B3A99B46}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DED22581-4E2D-4D0D-84FA-FF4E5799C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C706EC-82F2-4034-9DA9-EC9BFB873C92}"/>
   <bookViews>
     <workbookView xWindow="-6300" yWindow="8890" windowWidth="19420" windowHeight="10300" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -755,43 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -892,32 +855,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -958,11 +895,251 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1011,260 +1188,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1660,21 +1597,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1689,650 +1626,650 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="58"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="44"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="44"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="44"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="44"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="44"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="71" t="s">
+      <c r="D18" s="114"/>
+      <c r="E18" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71" t="s">
+      <c r="F18" s="114"/>
+      <c r="G18" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="71" t="s">
+      <c r="H18" s="115"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="72"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="114"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="44"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="44"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="77"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="44"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="44"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="44"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="44"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="44"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="44"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="44"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="77"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="96"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="99"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="66"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="99"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="99"/>
     </row>
     <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="99"/>
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="99"/>
       <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="99"/>
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="99"/>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="99"/>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -2340,375 +2277,375 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="104"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="109"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="107"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="109"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="110"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="109"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="34" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="104"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="109"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="107"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="109"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="110"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="109"/>
-      <c r="B56" s="80" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
+      <c r="L56" s="104"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="109"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="107"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="109"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="110"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="109"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="34" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="104"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="109"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="107"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="110"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="110"/>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="49"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="52"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="109"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="109"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="109"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="110"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="55"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="104"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="104"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="106"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="31"/>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="90"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
     </row>
     <row r="73" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="95"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="50"/>
     </row>
     <row r="74" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="92"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="11">
         <v>1</v>
       </c>
-      <c r="D74" s="96"/>
-      <c r="E74" s="97"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52"/>
       <c r="F74" s="11">
         <v>2</v>
       </c>
@@ -2716,46 +2653,46 @@
       <c r="H74" s="11">
         <v>3</v>
       </c>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="91" t="s">
+      <c r="A75" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="92"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="47"/>
+      <c r="C75" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="100"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
     </row>
     <row r="76" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="101"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="56"/>
+      <c r="C76" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="100"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="55"/>
     </row>
     <row r="77" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
@@ -2765,37 +2702,35 @@
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A68:B71"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C62:L67"/>
-    <mergeCell ref="C68:L71"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:L76"/>
+    <mergeCell ref="C39:L48"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="D53:L55"/>
+    <mergeCell ref="D56:L58"/>
+    <mergeCell ref="D59:L61"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:L30"/>
+    <mergeCell ref="C31:L38"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I6:L6"/>
@@ -2812,25 +2747,27 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C8:L17"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C20:L30"/>
-    <mergeCell ref="C31:L38"/>
-    <mergeCell ref="C39:L48"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="D53:L55"/>
-    <mergeCell ref="D56:L58"/>
-    <mergeCell ref="D59:L61"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:L76"/>
+    <mergeCell ref="A68:B71"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C62:L67"/>
+    <mergeCell ref="C68:L71"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
